--- a/results/NIST_CSF Result Sheet Government Sector 2021-2023.xlsx
+++ b/results/NIST_CSF Result Sheet Government Sector 2021-2023.xlsx
@@ -19,13 +19,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12110" uniqueCount="1659">
   <si>
+    <t>Control Name</t>
+  </si>
+  <si>
     <t>ttp_weight</t>
   </si>
   <si>
     <t>Control ID</t>
-  </si>
-  <si>
-    <t>Control Name</t>
   </si>
   <si>
     <t>PR.DS-7</t>
@@ -5669,20 +5669,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2">
@@ -5693,7 +5693,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3">
@@ -5704,7 +5704,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4">
@@ -5715,7 +5715,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5">
@@ -5726,7 +5726,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6">
@@ -5737,7 +5737,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7">
@@ -5748,7 +5748,7 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>64</v>
       </c>
       <c r="C8">
@@ -5759,7 +5759,7 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>65</v>
       </c>
       <c r="C9">
@@ -5770,7 +5770,7 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>66</v>
       </c>
       <c r="C10">
@@ -5781,7 +5781,7 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11">
@@ -5792,7 +5792,7 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
       <c r="C12">
@@ -5803,7 +5803,7 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>69</v>
       </c>
       <c r="C13">
@@ -5814,7 +5814,7 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14">
@@ -5825,7 +5825,7 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>71</v>
       </c>
       <c r="C15">
@@ -5836,7 +5836,7 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>72</v>
       </c>
       <c r="C16">
@@ -5847,7 +5847,7 @@
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17">
@@ -5858,7 +5858,7 @@
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18">
@@ -5869,7 +5869,7 @@
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>75</v>
       </c>
       <c r="C19">
@@ -5880,7 +5880,7 @@
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>76</v>
       </c>
       <c r="C20">
@@ -5891,7 +5891,7 @@
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>77</v>
       </c>
       <c r="C21">
@@ -5902,7 +5902,7 @@
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>78</v>
       </c>
       <c r="C22">
@@ -5913,7 +5913,7 @@
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>79</v>
       </c>
       <c r="C23">
@@ -5924,7 +5924,7 @@
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>80</v>
       </c>
       <c r="C24">
@@ -5935,7 +5935,7 @@
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>81</v>
       </c>
       <c r="C25">
@@ -5946,7 +5946,7 @@
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>82</v>
       </c>
       <c r="C26">
@@ -5957,7 +5957,7 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>83</v>
       </c>
       <c r="C27">
@@ -5968,7 +5968,7 @@
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>84</v>
       </c>
       <c r="C28">
@@ -5979,7 +5979,7 @@
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>85</v>
       </c>
       <c r="C29">
@@ -5990,7 +5990,7 @@
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>86</v>
       </c>
       <c r="C30">
@@ -6001,7 +6001,7 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>87</v>
       </c>
       <c r="C31">
@@ -6012,7 +6012,7 @@
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>88</v>
       </c>
       <c r="C32">
@@ -6023,7 +6023,7 @@
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>89</v>
       </c>
       <c r="C33">
@@ -6034,7 +6034,7 @@
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>90</v>
       </c>
       <c r="C34">
@@ -6045,7 +6045,7 @@
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>91</v>
       </c>
       <c r="C35">
@@ -6056,7 +6056,7 @@
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>92</v>
       </c>
       <c r="C36">
@@ -6067,7 +6067,7 @@
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>93</v>
       </c>
       <c r="C37">
@@ -6078,7 +6078,7 @@
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>94</v>
       </c>
       <c r="C38">
@@ -6089,7 +6089,7 @@
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>95</v>
       </c>
       <c r="C39">
@@ -6100,7 +6100,7 @@
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>96</v>
       </c>
       <c r="C40">
@@ -6111,7 +6111,7 @@
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>97</v>
       </c>
       <c r="C41">
@@ -6122,7 +6122,7 @@
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>98</v>
       </c>
       <c r="C42">
@@ -6133,7 +6133,7 @@
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>99</v>
       </c>
       <c r="C43">
@@ -6144,7 +6144,7 @@
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>100</v>
       </c>
       <c r="C44">
@@ -6155,7 +6155,7 @@
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>101</v>
       </c>
       <c r="C45">
@@ -6166,7 +6166,7 @@
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>102</v>
       </c>
       <c r="C46">
@@ -6177,7 +6177,7 @@
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>103</v>
       </c>
       <c r="C47">
@@ -6188,7 +6188,7 @@
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>104</v>
       </c>
       <c r="C48">
@@ -6199,7 +6199,7 @@
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>105</v>
       </c>
       <c r="C49">
@@ -6210,7 +6210,7 @@
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>106</v>
       </c>
       <c r="C50">
@@ -6221,7 +6221,7 @@
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>107</v>
       </c>
       <c r="C51">
@@ -6232,7 +6232,7 @@
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>108</v>
       </c>
       <c r="C52">
@@ -6243,7 +6243,7 @@
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>109</v>
       </c>
       <c r="C53">
@@ -6254,7 +6254,7 @@
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>110</v>
       </c>
       <c r="C54">
@@ -6265,7 +6265,7 @@
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>111</v>
       </c>
       <c r="C55">
@@ -6276,7 +6276,7 @@
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>112</v>
       </c>
       <c r="C56">
@@ -6298,13 +6298,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -6319,7 +6319,7 @@
         <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -43429,7 +43429,7 @@
         <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
